--- a/data/bitrate-final.xlsx
+++ b/data/bitrate-final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="19">
   <si>
     <t xml:space="preserve">H264 (Netflix)</t>
   </si>
@@ -307,13 +307,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.17"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -559,7 +559,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -602,29 +602,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="n">
+        <v>19200</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>16800</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>13440</v>
-      </c>
       <c r="D12" s="8" t="n">
-        <v>10720</v>
+        <v>13200</v>
       </c>
       <c r="E12" s="8" t="n">
-        <v>9280</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H12" s="8" t="n">
         <v>21000</v>
       </c>
-      <c r="H12" s="8" t="n">
-        <v>16800</v>
-      </c>
       <c r="I12" s="8" t="n">
-        <v>13400</v>
+        <v>16500</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>11600</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,29 +632,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>4640</v>
+        <v>6800</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>3600</v>
+        <v>5840</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="E13" s="8" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>4500</v>
+        <v>7300</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,29 +662,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>2720</v>
+        <v>3600</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>1920</v>
+        <v>3040</v>
       </c>
       <c r="D14" s="8" t="n">
+        <v>2352</v>
+      </c>
+      <c r="E14" s="8" t="n">
         <v>1200</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>640</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="8" t="n">
+        <v>2940</v>
+      </c>
+      <c r="J14" s="8" t="n">
         <v>1500</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,29 +692,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>816</v>
+        <v>2560</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="n">
-        <v>1020</v>
+        <v>3200</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,34 +722,34 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>307.2</v>
+        <v>360</v>
       </c>
       <c r="C16" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="D16" s="8" t="n">
-        <v>120</v>
-      </c>
       <c r="E16" s="8" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="n">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="H16" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="I16" s="8" t="n">
-        <v>150</v>
-      </c>
       <c r="J16" s="8" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -814,29 +814,29 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>19200</v>
+        <v>16800</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>16800</v>
+        <v>13440</v>
       </c>
       <c r="D20" s="8" t="n">
-        <v>13200</v>
+        <v>10720</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>10000</v>
+        <v>9280</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="8" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>21000</v>
+        <v>16800</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>16500</v>
+        <v>13400</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>12500</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,29 +844,29 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>6800</v>
+        <v>4640</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>5840</v>
+        <v>3600</v>
       </c>
       <c r="D21" s="8" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="E21" s="8" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="8" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>7300</v>
+        <v>4500</v>
       </c>
       <c r="I21" s="8" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,29 +874,29 @@
         <v>11</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>3600</v>
+        <v>2720</v>
       </c>
       <c r="C22" s="8" t="n">
-        <v>3040</v>
+        <v>1920</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>2352</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="8" t="n">
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="8" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>2940</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,29 +904,29 @@
         <v>12</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>2560</v>
+        <v>816</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>1760</v>
+        <v>640</v>
       </c>
       <c r="D23" s="8" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="E23" s="8" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8" t="n">
-        <v>3200</v>
+        <v>1020</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="I23" s="8" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,34 +934,34 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>360</v>
+        <v>307.2</v>
       </c>
       <c r="C24" s="8" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D24" s="8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E24" s="8" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8" t="n">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="H24" s="8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I24" s="8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1026,29 +1026,29 @@
         <v>9</v>
       </c>
       <c r="B28" s="8" t="n">
+        <v>19200</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <v>16800</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>13440</v>
-      </c>
       <c r="D28" s="8" t="n">
-        <v>10720</v>
+        <v>13200</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>9280</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H28" s="8" t="n">
         <v>21000</v>
       </c>
-      <c r="H28" s="8" t="n">
-        <v>16800</v>
-      </c>
       <c r="I28" s="8" t="n">
-        <v>13400</v>
+        <v>16500</v>
       </c>
       <c r="J28" s="8" t="n">
-        <v>11600</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,29 +1056,29 @@
         <v>10</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>4640</v>
+        <v>6800</v>
       </c>
       <c r="C29" s="8" t="n">
-        <v>3600</v>
+        <v>5840</v>
       </c>
       <c r="D29" s="8" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="E29" s="8" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="8" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>4500</v>
+        <v>7300</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="J29" s="8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,29 +1086,29 @@
         <v>11</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>2720</v>
+        <v>3600</v>
       </c>
       <c r="C30" s="8" t="n">
-        <v>1920</v>
+        <v>3040</v>
       </c>
       <c r="D30" s="8" t="n">
+        <v>2352</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <v>1200</v>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>640</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="I30" s="8" t="n">
+        <v>2940</v>
+      </c>
+      <c r="J30" s="8" t="n">
         <v>1500</v>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,29 +1116,29 @@
         <v>12</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>816</v>
+        <v>2560</v>
       </c>
       <c r="C31" s="8" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="E31" s="8" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="8" t="n">
-        <v>1020</v>
+        <v>3200</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,34 +1146,34 @@
         <v>13</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>307.2</v>
+        <v>360</v>
       </c>
       <c r="C32" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D32" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="D32" s="8" t="n">
-        <v>120</v>
-      </c>
       <c r="E32" s="8" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="8" t="n">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="H32" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="I32" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="I32" s="8" t="n">
-        <v>150</v>
-      </c>
       <c r="J32" s="8" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1595,8 +1595,220 @@
         <v>90</v>
       </c>
     </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>16800</v>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>13440</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8" t="n">
+        <v>21000</v>
+      </c>
+      <c r="H52" s="8" t="n">
+        <v>16800</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>13400</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>4640</v>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="8" t="n">
+        <v>5800</v>
+      </c>
+      <c r="H53" s="8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>640</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="8" t="n">
+        <v>3400</v>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="8" t="n">
+        <v>816</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>640</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>280</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="8" t="n">
+        <v>1020</v>
+      </c>
+      <c r="H55" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="I55" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v>307.2</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="8" t="n">
+        <v>384</v>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
@@ -1615,13 +1827,16 @@
     <mergeCell ref="A41:J41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="G42:J42"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>